--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>trhkdkdl</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <dimension ref="G6:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -361,6 +364,11 @@
     <row r="6" spans="8:8">
       <c r="H6">
         <v>886969</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="7:7">
